--- a/database.xlsx
+++ b/database.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Python project\docx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB4F1D78-D4DD-4DD9-BFCA-110AC732E138}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{840ACBD1-EED4-4A66-B56B-A717290C4AEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38640" windowHeight="20880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38640" windowHeight="20880" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Сводный мат баланс" sheetId="1" r:id="rId1"/>
@@ -1224,6 +1224,18 @@
     <xf numFmtId="164" fontId="1" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1259,18 +1271,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1890,7 +1890,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K35" sqref="K35"/>
     </sheetView>
   </sheetViews>
@@ -1908,22 +1908,22 @@
       <c r="B1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="78">
+      <c r="C1" s="58">
         <v>1</v>
       </c>
-      <c r="D1" s="78"/>
-      <c r="E1" s="78">
+      <c r="D1" s="58"/>
+      <c r="E1" s="58">
         <v>2</v>
       </c>
-      <c r="F1" s="78"/>
-      <c r="G1" s="78">
+      <c r="F1" s="58"/>
+      <c r="G1" s="58">
         <v>3</v>
       </c>
-      <c r="H1" s="78"/>
-      <c r="I1" s="78">
+      <c r="H1" s="58"/>
+      <c r="I1" s="58">
         <v>4</v>
       </c>
-      <c r="J1" s="78"/>
+      <c r="J1" s="58"/>
     </row>
     <row r="2" spans="1:10" ht="15.75">
       <c r="A2" s="1" t="s">
@@ -2769,32 +2769,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
-      <c r="A1" s="75" t="s">
+      <c r="A1" s="60" t="s">
         <v>80</v>
       </c>
-      <c r="B1" s="75"/>
-      <c r="C1" s="77">
+      <c r="B1" s="60"/>
+      <c r="C1" s="61">
         <v>1</v>
       </c>
-      <c r="D1" s="77"/>
-      <c r="E1" s="77">
+      <c r="D1" s="61"/>
+      <c r="E1" s="61">
         <v>2</v>
       </c>
-      <c r="F1" s="77"/>
-      <c r="G1" s="77">
+      <c r="F1" s="61"/>
+      <c r="G1" s="61">
         <v>3</v>
       </c>
-      <c r="H1" s="77"/>
-      <c r="I1" s="77">
+      <c r="H1" s="61"/>
+      <c r="I1" s="61">
         <v>4</v>
       </c>
-      <c r="J1" s="77"/>
+      <c r="J1" s="61"/>
     </row>
     <row r="2" spans="1:10" ht="15.75">
-      <c r="A2" s="76" t="s">
+      <c r="A2" s="59" t="s">
         <v>81</v>
       </c>
-      <c r="B2" s="76"/>
+      <c r="B2" s="59"/>
       <c r="C2" s="3">
         <v>1</v>
       </c>
@@ -2828,10 +2828,10 @@
       </c>
     </row>
     <row r="3" spans="1:10" ht="15.75">
-      <c r="A3" s="76" t="s">
+      <c r="A3" s="59" t="s">
         <v>87</v>
       </c>
-      <c r="B3" s="76"/>
+      <c r="B3" s="59"/>
       <c r="C3" s="3">
         <v>1</v>
       </c>
@@ -2865,10 +2865,10 @@
       </c>
     </row>
     <row r="4" spans="1:10" ht="15.75">
-      <c r="A4" s="76" t="s">
+      <c r="A4" s="59" t="s">
         <v>88</v>
       </c>
-      <c r="B4" s="76"/>
+      <c r="B4" s="59"/>
       <c r="C4" s="3">
         <v>1</v>
       </c>
@@ -2902,10 +2902,10 @@
       </c>
     </row>
     <row r="5" spans="1:10" ht="15.75">
-      <c r="A5" s="76" t="s">
+      <c r="A5" s="59" t="s">
         <v>89</v>
       </c>
-      <c r="B5" s="76"/>
+      <c r="B5" s="59"/>
       <c r="C5" s="3">
         <v>1</v>
       </c>
@@ -2939,10 +2939,10 @@
       </c>
     </row>
     <row r="6" spans="1:10" ht="15.75">
-      <c r="A6" s="76" t="s">
+      <c r="A6" s="59" t="s">
         <v>82</v>
       </c>
-      <c r="B6" s="76"/>
+      <c r="B6" s="59"/>
       <c r="C6" s="3">
         <v>1</v>
       </c>
@@ -2976,10 +2976,10 @@
       </c>
     </row>
     <row r="7" spans="1:10" ht="15.75">
-      <c r="A7" s="76" t="s">
+      <c r="A7" s="59" t="s">
         <v>90</v>
       </c>
-      <c r="B7" s="76"/>
+      <c r="B7" s="59"/>
       <c r="C7" s="3">
         <v>1</v>
       </c>
@@ -3013,10 +3013,10 @@
       </c>
     </row>
     <row r="8" spans="1:10" ht="15.75">
-      <c r="A8" s="76" t="s">
+      <c r="A8" s="59" t="s">
         <v>91</v>
       </c>
-      <c r="B8" s="76"/>
+      <c r="B8" s="59"/>
       <c r="C8" s="3">
         <v>1</v>
       </c>
@@ -3050,10 +3050,10 @@
       </c>
     </row>
     <row r="9" spans="1:10" ht="15.75">
-      <c r="A9" s="76" t="s">
+      <c r="A9" s="59" t="s">
         <v>83</v>
       </c>
-      <c r="B9" s="76"/>
+      <c r="B9" s="59"/>
       <c r="C9" s="3">
         <v>1</v>
       </c>
@@ -3087,10 +3087,10 @@
       </c>
     </row>
     <row r="10" spans="1:10" ht="15.75">
-      <c r="A10" s="76" t="s">
+      <c r="A10" s="59" t="s">
         <v>92</v>
       </c>
-      <c r="B10" s="76"/>
+      <c r="B10" s="59"/>
       <c r="C10" s="3">
         <v>1</v>
       </c>
@@ -3124,10 +3124,10 @@
       </c>
     </row>
     <row r="11" spans="1:10" ht="15.75">
-      <c r="A11" s="76" t="s">
+      <c r="A11" s="59" t="s">
         <v>84</v>
       </c>
-      <c r="B11" s="76"/>
+      <c r="B11" s="59"/>
       <c r="C11" s="3">
         <v>1</v>
       </c>
@@ -3161,10 +3161,10 @@
       </c>
     </row>
     <row r="12" spans="1:10" ht="15.75">
-      <c r="A12" s="76" t="s">
+      <c r="A12" s="59" t="s">
         <v>85</v>
       </c>
-      <c r="B12" s="76"/>
+      <c r="B12" s="59"/>
       <c r="C12" s="3">
         <v>1</v>
       </c>
@@ -3198,10 +3198,10 @@
       </c>
     </row>
     <row r="13" spans="1:10" ht="15.75">
-      <c r="A13" s="76" t="s">
+      <c r="A13" s="59" t="s">
         <v>93</v>
       </c>
-      <c r="B13" s="76"/>
+      <c r="B13" s="59"/>
       <c r="C13" s="3">
         <v>1</v>
       </c>
@@ -3235,10 +3235,10 @@
       </c>
     </row>
     <row r="14" spans="1:10" ht="15.75">
-      <c r="A14" s="76" t="s">
+      <c r="A14" s="59" t="s">
         <v>86</v>
       </c>
-      <c r="B14" s="76"/>
+      <c r="B14" s="59"/>
       <c r="C14" s="3">
         <v>1</v>
       </c>
@@ -3272,10 +3272,10 @@
       </c>
     </row>
     <row r="15" spans="1:10" ht="15.75">
-      <c r="A15" s="76" t="s">
+      <c r="A15" s="59" t="s">
         <v>94</v>
       </c>
-      <c r="B15" s="76"/>
+      <c r="B15" s="59"/>
       <c r="C15" s="3">
         <v>1</v>
       </c>
@@ -3310,17 +3310,11 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="C1:D1"/>
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="G1:H1"/>
     <mergeCell ref="I1:J1"/>
     <mergeCell ref="A9:B9"/>
     <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A14:B14"/>
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="A5:B5"/>
@@ -3329,6 +3323,12 @@
     <mergeCell ref="A8:B8"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A14:B14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3340,7 +3340,7 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B46" sqref="B46"/>
+      <selection activeCell="B49" sqref="B49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3398,8 +3398,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{464FB102-81A7-4764-B91B-CDE9FA862ED9}">
   <dimension ref="A1:M152"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M20" sqref="M20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3415,47 +3415,47 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
-      <c r="A1" s="66" t="s">
+      <c r="A1" s="70" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="61"/>
-      <c r="C1" s="61"/>
-      <c r="D1" s="61"/>
-      <c r="E1" s="61"/>
-      <c r="F1" s="61"/>
-      <c r="G1" s="61"/>
-      <c r="H1" s="61"/>
-      <c r="I1" s="61"/>
-      <c r="J1" s="61"/>
-      <c r="K1" s="61"/>
-      <c r="L1" s="61"/>
-      <c r="M1" s="65"/>
+      <c r="B1" s="65"/>
+      <c r="C1" s="65"/>
+      <c r="D1" s="65"/>
+      <c r="E1" s="65"/>
+      <c r="F1" s="65"/>
+      <c r="G1" s="65"/>
+      <c r="H1" s="65"/>
+      <c r="I1" s="65"/>
+      <c r="J1" s="65"/>
+      <c r="K1" s="65"/>
+      <c r="L1" s="65"/>
+      <c r="M1" s="69"/>
     </row>
     <row r="2" spans="1:13" ht="18.75">
-      <c r="A2" s="67" t="s">
+      <c r="A2" s="71" t="s">
         <v>28</v>
       </c>
-      <c r="B2" s="68">
+      <c r="B2" s="72">
         <v>1</v>
       </c>
-      <c r="C2" s="69"/>
-      <c r="D2" s="69"/>
-      <c r="E2" s="70"/>
-      <c r="F2" s="71">
+      <c r="C2" s="73"/>
+      <c r="D2" s="73"/>
+      <c r="E2" s="74"/>
+      <c r="F2" s="75">
         <v>2</v>
       </c>
-      <c r="G2" s="69"/>
-      <c r="H2" s="69"/>
-      <c r="I2" s="70"/>
-      <c r="J2" s="72">
+      <c r="G2" s="73"/>
+      <c r="H2" s="73"/>
+      <c r="I2" s="74"/>
+      <c r="J2" s="76">
         <v>3</v>
       </c>
-      <c r="K2" s="69"/>
-      <c r="L2" s="69"/>
-      <c r="M2" s="73"/>
+      <c r="K2" s="73"/>
+      <c r="L2" s="73"/>
+      <c r="M2" s="77"/>
     </row>
     <row r="3" spans="1:13" ht="37.5">
-      <c r="A3" s="59"/>
+      <c r="A3" s="63"/>
       <c r="B3" s="6" t="s">
         <v>29</v>
       </c>
@@ -4356,30 +4356,30 @@
       <c r="M25" s="21"/>
     </row>
     <row r="26" spans="1:13" ht="18.75">
-      <c r="A26" s="74" t="s">
+      <c r="A26" s="78" t="s">
         <v>39</v>
       </c>
-      <c r="B26" s="68">
+      <c r="B26" s="72">
         <v>1</v>
       </c>
-      <c r="C26" s="69"/>
-      <c r="D26" s="69"/>
-      <c r="E26" s="70"/>
-      <c r="F26" s="71">
+      <c r="C26" s="73"/>
+      <c r="D26" s="73"/>
+      <c r="E26" s="74"/>
+      <c r="F26" s="75">
         <v>2</v>
       </c>
-      <c r="G26" s="69"/>
-      <c r="H26" s="69"/>
-      <c r="I26" s="70"/>
-      <c r="J26" s="72">
+      <c r="G26" s="73"/>
+      <c r="H26" s="73"/>
+      <c r="I26" s="74"/>
+      <c r="J26" s="76">
         <v>3</v>
       </c>
-      <c r="K26" s="69"/>
-      <c r="L26" s="69"/>
-      <c r="M26" s="73"/>
+      <c r="K26" s="73"/>
+      <c r="L26" s="73"/>
+      <c r="M26" s="77"/>
     </row>
     <row r="27" spans="1:13" ht="37.5">
-      <c r="A27" s="59"/>
+      <c r="A27" s="63"/>
       <c r="B27" s="8" t="s">
         <v>29</v>
       </c>
@@ -6723,30 +6723,30 @@
       <c r="M124" s="32"/>
     </row>
     <row r="125" spans="1:13" ht="18.75">
-      <c r="A125" s="58" t="s">
+      <c r="A125" s="62" t="s">
         <v>71</v>
       </c>
-      <c r="B125" s="60">
+      <c r="B125" s="64">
         <v>1</v>
       </c>
-      <c r="C125" s="61"/>
-      <c r="D125" s="62"/>
-      <c r="E125" s="63">
+      <c r="C125" s="65"/>
+      <c r="D125" s="66"/>
+      <c r="E125" s="67">
         <v>2</v>
       </c>
-      <c r="F125" s="61"/>
-      <c r="G125" s="62"/>
-      <c r="H125" s="64">
+      <c r="F125" s="65"/>
+      <c r="G125" s="66"/>
+      <c r="H125" s="68">
         <v>3</v>
       </c>
-      <c r="I125" s="61"/>
-      <c r="J125" s="65"/>
+      <c r="I125" s="65"/>
+      <c r="J125" s="69"/>
       <c r="K125" s="33"/>
       <c r="L125" s="33"/>
       <c r="M125" s="33"/>
     </row>
     <row r="126" spans="1:13" ht="18.75">
-      <c r="A126" s="59"/>
+      <c r="A126" s="63"/>
       <c r="B126" s="7" t="s">
         <v>30</v>
       </c>

--- a/database.xlsx
+++ b/database.xlsx
@@ -5,19 +5,21 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Python project\docx\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\docx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C14B098-63F8-414C-9CE7-14F9DF732F40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF23704F-B723-4E02-80AA-4A872B833F6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Сводный мат баланс" sheetId="1" r:id="rId1"/>
     <sheet name="Термодинамика" sheetId="5" r:id="rId2"/>
     <sheet name="Название потоков" sheetId="4" r:id="rId3"/>
-    <sheet name="8.1" sheetId="6" r:id="rId4"/>
-    <sheet name="8.2" sheetId="7" r:id="rId5"/>
+    <sheet name="7.1" sheetId="8" r:id="rId4"/>
+    <sheet name="8.1" sheetId="6" r:id="rId5"/>
+    <sheet name="8.2" sheetId="7" r:id="rId6"/>
+    <sheet name="11.1" sheetId="9" r:id="rId7"/>
   </sheets>
   <definedNames>
     <definedName name="Тарелки">#REF!</definedName>
@@ -41,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="194">
   <si>
     <t>H2S</t>
   </si>
@@ -410,6 +412,378 @@
       </rPr>
       <t>/ч</t>
     </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Наименование показателей режима и условий работы аппаратов </t>
+  </si>
+  <si>
+    <t>Единицы измерения</t>
+  </si>
+  <si>
+    <t>Номинальные значения показателей</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Допустимые пределы колебаний режима </t>
+  </si>
+  <si>
+    <t>Колонна экстракции С-301</t>
+  </si>
+  <si>
+    <t>Температура</t>
+  </si>
+  <si>
+    <t>Расход СУГ</t>
+  </si>
+  <si>
+    <t>Расход раствора NaOH</t>
+  </si>
+  <si>
+    <t>Концентрация NaOH:</t>
+  </si>
+  <si>
+    <t>Давление в кубе (изб.)</t>
+  </si>
+  <si>
+    <t>[SRSH] до очистки</t>
+  </si>
+  <si>
+    <t>[SRSH] после очистки</t>
+  </si>
+  <si>
+    <t>[SН2S] до очистки</t>
+  </si>
+  <si>
+    <t>[SН2S] после очистки</t>
+  </si>
+  <si>
+    <t>кгс/см2 (изб.)</t>
+  </si>
+  <si>
+    <t>°С</t>
+  </si>
+  <si>
+    <t>% масс.</t>
+  </si>
+  <si>
+    <t>30,0÷45,0</t>
+  </si>
+  <si>
+    <t>10,0÷20,0</t>
+  </si>
+  <si>
+    <t>≤0,0005</t>
+  </si>
+  <si>
+    <t>≤0,0025</t>
+  </si>
+  <si>
+    <t>отс.</t>
+  </si>
+  <si>
+    <t>19,0÷21,0</t>
+  </si>
+  <si>
+    <t>не выше 45,0</t>
+  </si>
+  <si>
+    <t>15,1÷35,0</t>
+  </si>
+  <si>
+    <t>2,0÷4,0</t>
+  </si>
+  <si>
+    <t>не более 0,3</t>
+  </si>
+  <si>
+    <t>не более 0,0005</t>
+  </si>
+  <si>
+    <t>не более 0,0025</t>
+  </si>
+  <si>
+    <t>Давление в кубе</t>
+  </si>
+  <si>
+    <t>3,0÷6,0</t>
+  </si>
+  <si>
+    <t>не менее 3,0</t>
+  </si>
+  <si>
+    <t>Давление верха</t>
+  </si>
+  <si>
+    <t>2,35÷4,35</t>
+  </si>
+  <si>
+    <t>не менее 1,35</t>
+  </si>
+  <si>
+    <t>0С</t>
+  </si>
+  <si>
+    <t>50,0÷60,0</t>
+  </si>
+  <si>
+    <t>Расход щелочи</t>
+  </si>
+  <si>
+    <t>Расход воздуха</t>
+  </si>
+  <si>
+    <t>10÷200</t>
+  </si>
+  <si>
+    <t>[SRSNa] до регенерации</t>
+  </si>
+  <si>
+    <t>не более 2,0</t>
+  </si>
+  <si>
+    <t>[SRSNa] после регенерации</t>
+  </si>
+  <si>
+    <t>не более 0,4</t>
+  </si>
+  <si>
+    <t>Регенератор щелочи R-301</t>
+  </si>
+  <si>
+    <t>Отстойник СУГ V-301</t>
+  </si>
+  <si>
+    <t>Давление</t>
+  </si>
+  <si>
+    <t>18,0÷20,0</t>
+  </si>
+  <si>
+    <t>0,0÷1,0</t>
+  </si>
+  <si>
+    <t>V-303А</t>
+  </si>
+  <si>
+    <t>Расход щелочного раствора</t>
+  </si>
+  <si>
+    <t>Расход нафты</t>
+  </si>
+  <si>
+    <t>0,2÷0,8</t>
+  </si>
+  <si>
+    <t>Давление,  (изб.)</t>
+  </si>
+  <si>
+    <t>11,0÷13,0</t>
+  </si>
+  <si>
+    <t>V-303В</t>
+  </si>
+  <si>
+    <t>23,0÷25,0</t>
+  </si>
+  <si>
+    <t>Емкость декарбонизации воздуха V-304</t>
+  </si>
+  <si>
+    <t>Давление, (изб.)</t>
+  </si>
+  <si>
+    <t>4,0÷6,0</t>
+  </si>
+  <si>
+    <t>не менее 4,0</t>
+  </si>
+  <si>
+    <t>10,0÷40,0</t>
+  </si>
+  <si>
+    <t>50÷200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ССО2 до абсорбции </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ССО2 после абсорбции </t>
+  </si>
+  <si>
+    <t>не более 0,01</t>
+  </si>
+  <si>
+    <t>Емкость хранения и приготовления щелочного раствора V-305</t>
+  </si>
+  <si>
+    <t>1,5÷2,5</t>
+  </si>
+  <si>
+    <t>10,0÷70,0</t>
+  </si>
+  <si>
+    <t>Водный р-р NaОН</t>
+  </si>
+  <si>
+    <t>м3</t>
+  </si>
+  <si>
+    <t>0÷40,0</t>
+  </si>
+  <si>
+    <t>Концентрация NaОН</t>
+  </si>
+  <si>
+    <t>0,0÷46,0</t>
+  </si>
+  <si>
+    <t>Давление (изб.)</t>
+  </si>
+  <si>
+    <t>не выше 6,0</t>
+  </si>
+  <si>
+    <t>Температура на входе</t>
+  </si>
+  <si>
+    <t>Температура на выходе</t>
+  </si>
+  <si>
+    <t>Водный раствор NaОН</t>
+  </si>
+  <si>
+    <t>Холодильник регенерированного раствора щелочи ЕW-301</t>
+  </si>
+  <si>
+    <t>Водный раствор NaОН и нафты с дисульфидами</t>
+  </si>
+  <si>
+    <t>2,2÷4,8</t>
+  </si>
+  <si>
+    <t>Подогреватель насыщенного раствора щелочи Е-301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Сепаратор V-302 </t>
+  </si>
+  <si>
+    <t>Отстойник дисульфидов V-303В</t>
+  </si>
+  <si>
+    <t>Отстойник дисульфидов V-303А</t>
+  </si>
+  <si>
+    <t>Индекс по схеме</t>
+  </si>
+  <si>
+    <t>Наименование аппарата</t>
+  </si>
+  <si>
+    <t>Размеры, мм</t>
+  </si>
+  <si>
+    <t>Диаметр</t>
+  </si>
+  <si>
+    <t>Длина</t>
+  </si>
+  <si>
+    <t>С-301</t>
+  </si>
+  <si>
+    <t>Колонна экстракции</t>
+  </si>
+  <si>
+    <t>30÷45</t>
+  </si>
+  <si>
+    <t>V-301</t>
+  </si>
+  <si>
+    <t>R-301</t>
+  </si>
+  <si>
+    <t>Регенератор щелочи</t>
+  </si>
+  <si>
+    <t>16,0**</t>
+  </si>
+  <si>
+    <t>50÷60</t>
+  </si>
+  <si>
+    <t>V-302</t>
+  </si>
+  <si>
+    <t>Сепаратор</t>
+  </si>
+  <si>
+    <t>6,0**</t>
+  </si>
+  <si>
+    <t>Отстойник дисульфидов</t>
+  </si>
+  <si>
+    <t>38,0**</t>
+  </si>
+  <si>
+    <t>V-304</t>
+  </si>
+  <si>
+    <t>Емкость декарбонизации воздуха</t>
+  </si>
+  <si>
+    <t>10÷40</t>
+  </si>
+  <si>
+    <t>V-305</t>
+  </si>
+  <si>
+    <t>Емкость хранения и приготовления щел. раствора</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>10÷70</t>
+  </si>
+  <si>
+    <t>F-301 А/В</t>
+  </si>
+  <si>
+    <t>Фильтр</t>
+  </si>
+  <si>
+    <t>**</t>
+  </si>
+  <si>
+    <t>F-302 А/В</t>
+  </si>
+  <si>
+    <t>F-303 А/В</t>
+  </si>
+  <si>
+    <t>Объем м3</t>
+  </si>
+  <si>
+    <t>Температура рабочая оС</t>
+  </si>
+  <si>
+    <t>Температура расчетная, оС</t>
+  </si>
+  <si>
+    <t>Отстойник СУГ</t>
+  </si>
+  <si>
+    <t>Ду=80</t>
+  </si>
+  <si>
+    <t>2,35÷4,35***</t>
+  </si>
+  <si>
+    <t>Давление рабочее, кгс/см2 (изб.)</t>
+  </si>
+  <si>
+    <t>Давление расчетное,  кгс/см2 (изб.)</t>
   </si>
 </sst>
 </file>
@@ -536,7 +910,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
@@ -548,17 +922,8 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -569,6 +934,21 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -869,22 +1249,22 @@
       <c r="B1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="5">
+      <c r="C1" s="11">
         <v>1</v>
       </c>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5">
-        <v>2</v>
-      </c>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5">
-        <v>3</v>
-      </c>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5">
+      <c r="D1" s="11"/>
+      <c r="E1" s="11">
+        <v>2</v>
+      </c>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11">
+        <v>3</v>
+      </c>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11">
         <v>4</v>
       </c>
-      <c r="J1" s="5"/>
+      <c r="J1" s="11"/>
     </row>
     <row r="2" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -1625,32 +2005,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="6">
+      <c r="B1" s="14"/>
+      <c r="C1" s="13">
         <v>1</v>
       </c>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6">
-        <v>2</v>
-      </c>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6">
-        <v>3</v>
-      </c>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6">
+      <c r="D1" s="13"/>
+      <c r="E1" s="13">
+        <v>2</v>
+      </c>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13">
+        <v>3</v>
+      </c>
+      <c r="H1" s="13"/>
+      <c r="I1" s="13">
         <v>4</v>
       </c>
-      <c r="J1" s="6"/>
+      <c r="J1" s="13"/>
     </row>
     <row r="2" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="B2" s="7"/>
+      <c r="B2" s="12"/>
       <c r="C2" s="3">
         <v>1</v>
       </c>
@@ -1684,10 +2064,10 @@
       </c>
     </row>
     <row r="3" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="B3" s="7"/>
+      <c r="B3" s="12"/>
       <c r="C3" s="3">
         <v>1</v>
       </c>
@@ -1721,10 +2101,10 @@
       </c>
     </row>
     <row r="4" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="B4" s="7"/>
+      <c r="B4" s="12"/>
       <c r="C4" s="3">
         <v>1</v>
       </c>
@@ -1758,10 +2138,10 @@
       </c>
     </row>
     <row r="5" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="B5" s="7"/>
+      <c r="B5" s="12"/>
       <c r="C5" s="3">
         <v>1</v>
       </c>
@@ -1795,10 +2175,10 @@
       </c>
     </row>
     <row r="6" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="B6" s="7"/>
+      <c r="B6" s="12"/>
       <c r="C6" s="3">
         <v>1</v>
       </c>
@@ -1832,10 +2212,10 @@
       </c>
     </row>
     <row r="7" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="s">
+      <c r="A7" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="B7" s="7"/>
+      <c r="B7" s="12"/>
       <c r="C7" s="3">
         <v>1</v>
       </c>
@@ -1869,10 +2249,10 @@
       </c>
     </row>
     <row r="8" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="7" t="s">
+      <c r="A8" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="B8" s="7"/>
+      <c r="B8" s="12"/>
       <c r="C8" s="3">
         <v>1</v>
       </c>
@@ -1906,10 +2286,10 @@
       </c>
     </row>
     <row r="9" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="7" t="s">
+      <c r="A9" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="B9" s="7"/>
+      <c r="B9" s="12"/>
       <c r="C9" s="3">
         <v>1</v>
       </c>
@@ -1943,10 +2323,10 @@
       </c>
     </row>
     <row r="10" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="7" t="s">
+      <c r="A10" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="B10" s="7"/>
+      <c r="B10" s="12"/>
       <c r="C10" s="3">
         <v>1</v>
       </c>
@@ -1980,10 +2360,10 @@
       </c>
     </row>
     <row r="11" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="7" t="s">
+      <c r="A11" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="B11" s="7"/>
+      <c r="B11" s="12"/>
       <c r="C11" s="3">
         <v>1</v>
       </c>
@@ -2017,10 +2397,10 @@
       </c>
     </row>
     <row r="12" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="7" t="s">
+      <c r="A12" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="B12" s="7"/>
+      <c r="B12" s="12"/>
       <c r="C12" s="3">
         <v>1</v>
       </c>
@@ -2054,10 +2434,10 @@
       </c>
     </row>
     <row r="13" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="7" t="s">
+      <c r="A13" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="B13" s="7"/>
+      <c r="B13" s="12"/>
       <c r="C13" s="3">
         <v>1</v>
       </c>
@@ -2091,10 +2471,10 @@
       </c>
     </row>
     <row r="14" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="7" t="s">
+      <c r="A14" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="B14" s="7"/>
+      <c r="B14" s="12"/>
       <c r="C14" s="3">
         <v>1</v>
       </c>
@@ -2128,10 +2508,10 @@
       </c>
     </row>
     <row r="15" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="7" t="s">
+      <c r="A15" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="B15" s="7"/>
+      <c r="B15" s="12"/>
       <c r="C15" s="3">
         <v>1</v>
       </c>
@@ -2166,12 +2546,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A14:B14"/>
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="G1:H1"/>
     <mergeCell ref="I1:J1"/>
@@ -2185,6 +2559,12 @@
     <mergeCell ref="A8:B8"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A14:B14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2195,7 +2575,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66E0FB12-2947-4379-BC0D-3F9E2B392BF5}">
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B46" sqref="B46"/>
     </sheetView>
   </sheetViews>
@@ -2251,6 +2631,706 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA04E15E-90D9-492C-AD52-AD4D0E38D4EA}">
+  <dimension ref="A1:E46"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="145" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="59.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="63.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="40.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="D2" s="5">
+        <v>21</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B3" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B4" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="D4" s="5">
+        <v>31.8</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B5" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="D5" s="5">
+        <v>3</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B6" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B7" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="D7" s="5">
+        <v>0.27400000000000002</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B8" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B9" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B10" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B12" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B13" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="D13" s="5">
+        <v>55</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B14" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="D14" s="5">
+        <v>3</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B15" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="D15" s="5">
+        <v>150</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B16" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="D16" s="5">
+        <v>1.3</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B17" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="D17" s="5">
+        <v>0.13</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="D18" s="5">
+        <v>20</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B19" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B21" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="D21" s="5">
+        <v>55</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="D22" s="5">
+        <v>3</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B23" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="D23" s="5">
+        <v>0.3</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B24" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="D24" s="5">
+        <v>12</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B25" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="D26" s="5">
+        <v>3</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B27" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="D27" s="5">
+        <v>0.3</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B28" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="D28" s="5">
+        <v>24</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B29" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="E29" s="5" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="E30" s="5" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B31" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="D31" s="5">
+        <v>25</v>
+      </c>
+      <c r="E31" s="5" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B32" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="D32" s="5">
+        <v>150</v>
+      </c>
+      <c r="E32" s="5" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B33" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="D33" s="5">
+        <v>4.5999999999999999E-2</v>
+      </c>
+      <c r="E33" s="5">
+        <v>4.5999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B34" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="D34" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="E34" s="5" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="D35" s="5">
+        <v>2</v>
+      </c>
+      <c r="E35" s="5" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B36" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="D36" s="5">
+        <v>20</v>
+      </c>
+      <c r="E36" s="5" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B37" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="D37" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="E37" s="5" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B38" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="D38" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="E38" s="5" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="C39" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="D39" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="E39" s="5" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B40" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="C40" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="D40" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="E40" s="5" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B41" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="C41" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="D41" s="5">
+        <v>55</v>
+      </c>
+      <c r="E41" s="5" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B42" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="C42" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="D42" s="5">
+        <v>3</v>
+      </c>
+      <c r="E42" s="5" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="B43" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="C43" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="D43" s="5">
+        <v>12</v>
+      </c>
+      <c r="E43" s="5" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B44" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="C44" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="D44" s="5">
+        <v>55</v>
+      </c>
+      <c r="E44" s="5" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B45" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="C45" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="D45" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="E45" s="5" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B46" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="C46" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="D46" s="5">
+        <v>3.3</v>
+      </c>
+      <c r="E46" s="5" t="s">
+        <v>151</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9B96D8C-3CB0-4061-AC86-3AFAEEAB46D9}">
   <dimension ref="A1:D5"/>
   <sheetViews>
@@ -2267,66 +3347,66 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="6" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="D2" s="11">
+      <c r="D2" s="8">
         <v>10.199999999999999</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="9"/>
-      <c r="B3" s="10" t="s">
+      <c r="A3" s="6"/>
+      <c r="B3" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="D3" s="11">
+      <c r="D3" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="9"/>
-      <c r="B4" s="10" t="s">
+      <c r="A4" s="6"/>
+      <c r="B4" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="C4" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="D4" s="11">
+      <c r="D4" s="8">
         <v>0.3</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="9"/>
-      <c r="B5" s="10" t="s">
+      <c r="A5" s="6"/>
+      <c r="B5" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="C5" s="11" t="s">
+      <c r="C5" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="D5" s="11">
+      <c r="D5" s="8">
         <v>3.7</v>
       </c>
     </row>
@@ -2336,12 +3416,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{903989F0-FC67-4B3C-9B81-D79F2BA1C1EF}">
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView zoomScale="240" zoomScaleNormal="240" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2353,94 +3433,476 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="9" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="C2" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="D2" s="12">
+      <c r="D2" s="9">
         <v>150</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="13"/>
-      <c r="B3" s="12" t="s">
+      <c r="A3" s="10"/>
+      <c r="B3" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="C3" s="12" t="s">
+      <c r="C3" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="D3" s="12" t="s">
+      <c r="D3" s="9" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="12"/>
-      <c r="B4" s="12" t="s">
+      <c r="A4" s="9"/>
+      <c r="B4" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="C4" s="12" t="s">
+      <c r="C4" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="D4" s="12" t="s">
+      <c r="D4" s="9" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="12"/>
-      <c r="B5" s="12" t="s">
+      <c r="A5" s="9"/>
+      <c r="B5" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="C5" s="12" t="s">
+      <c r="C5" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="D5" s="12">
+      <c r="D5" s="9">
         <v>6.2</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="12"/>
-      <c r="B6" s="12" t="s">
+      <c r="A6" s="9"/>
+      <c r="B6" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="C6" s="12" t="s">
+      <c r="C6" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="D6" s="12" t="s">
+      <c r="D6" s="9" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="12"/>
-      <c r="B7" s="12" t="s">
+      <c r="A7" s="9"/>
+      <c r="B7" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="C7" s="12" t="s">
+      <c r="C7" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="D7" s="12" t="s">
+      <c r="D7" s="9" t="s">
         <v>66</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BB8F5F1-7F1C-4A8F-9123-E1FB0989A669}">
+  <dimension ref="A1:I13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="48" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="24.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="24" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B1" t="s">
+        <v>157</v>
+      </c>
+      <c r="C1" t="s">
+        <v>186</v>
+      </c>
+      <c r="D1" s="15" t="s">
+        <v>158</v>
+      </c>
+      <c r="E1" s="15"/>
+      <c r="F1" t="s">
+        <v>192</v>
+      </c>
+      <c r="G1" t="s">
+        <v>193</v>
+      </c>
+      <c r="H1" t="s">
+        <v>187</v>
+      </c>
+      <c r="I1" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D2" t="s">
+        <v>159</v>
+      </c>
+      <c r="E2" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>161</v>
+      </c>
+      <c r="B3" t="s">
+        <v>162</v>
+      </c>
+      <c r="C3">
+        <v>22</v>
+      </c>
+      <c r="D3">
+        <v>1100</v>
+      </c>
+      <c r="E3">
+        <v>22700</v>
+      </c>
+      <c r="F3">
+        <v>20</v>
+      </c>
+      <c r="G3">
+        <v>38</v>
+      </c>
+      <c r="H3" t="s">
+        <v>163</v>
+      </c>
+      <c r="I3">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>164</v>
+      </c>
+      <c r="B4" t="s">
+        <v>189</v>
+      </c>
+      <c r="C4">
+        <v>22.1</v>
+      </c>
+      <c r="D4">
+        <v>1800</v>
+      </c>
+      <c r="E4">
+        <v>8000</v>
+      </c>
+      <c r="F4">
+        <v>20</v>
+      </c>
+      <c r="G4">
+        <v>38</v>
+      </c>
+      <c r="H4" t="s">
+        <v>163</v>
+      </c>
+      <c r="I4">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>165</v>
+      </c>
+      <c r="B5" t="s">
+        <v>166</v>
+      </c>
+      <c r="C5">
+        <v>12.4</v>
+      </c>
+      <c r="D5">
+        <v>1000</v>
+      </c>
+      <c r="E5">
+        <v>15400</v>
+      </c>
+      <c r="F5" t="s">
+        <v>191</v>
+      </c>
+      <c r="G5" t="s">
+        <v>167</v>
+      </c>
+      <c r="H5" t="s">
+        <v>168</v>
+      </c>
+      <c r="I5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>169</v>
+      </c>
+      <c r="B6" t="s">
+        <v>170</v>
+      </c>
+      <c r="C6">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="D6">
+        <v>1200</v>
+      </c>
+      <c r="E6">
+        <v>2000</v>
+      </c>
+      <c r="F6" t="s">
+        <v>118</v>
+      </c>
+      <c r="G6" t="s">
+        <v>171</v>
+      </c>
+      <c r="H6" t="s">
+        <v>168</v>
+      </c>
+      <c r="I6">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>119</v>
+      </c>
+      <c r="B7" t="s">
+        <v>172</v>
+      </c>
+      <c r="C7">
+        <v>7.5</v>
+      </c>
+      <c r="D7">
+        <v>1200</v>
+      </c>
+      <c r="E7">
+        <v>6200</v>
+      </c>
+      <c r="F7">
+        <v>12</v>
+      </c>
+      <c r="G7" t="s">
+        <v>167</v>
+      </c>
+      <c r="H7" t="s">
+        <v>163</v>
+      </c>
+      <c r="I7">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>125</v>
+      </c>
+      <c r="B8" t="s">
+        <v>172</v>
+      </c>
+      <c r="C8">
+        <v>7.5</v>
+      </c>
+      <c r="D8">
+        <v>1200</v>
+      </c>
+      <c r="E8">
+        <v>6200</v>
+      </c>
+      <c r="F8">
+        <v>24</v>
+      </c>
+      <c r="G8" t="s">
+        <v>173</v>
+      </c>
+      <c r="H8" t="s">
+        <v>163</v>
+      </c>
+      <c r="I8">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>174</v>
+      </c>
+      <c r="B9" t="s">
+        <v>175</v>
+      </c>
+      <c r="C9">
+        <v>1.6</v>
+      </c>
+      <c r="D9">
+        <v>1000</v>
+      </c>
+      <c r="E9">
+        <v>2000</v>
+      </c>
+      <c r="F9" t="s">
+        <v>129</v>
+      </c>
+      <c r="G9" t="s">
+        <v>167</v>
+      </c>
+      <c r="H9" t="s">
+        <v>176</v>
+      </c>
+      <c r="I9">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>177</v>
+      </c>
+      <c r="B10" t="s">
+        <v>178</v>
+      </c>
+      <c r="C10">
+        <v>40</v>
+      </c>
+      <c r="D10" t="s">
+        <v>179</v>
+      </c>
+      <c r="E10" t="s">
+        <v>179</v>
+      </c>
+      <c r="F10">
+        <v>2.5</v>
+      </c>
+      <c r="G10">
+        <v>6</v>
+      </c>
+      <c r="H10" t="s">
+        <v>180</v>
+      </c>
+      <c r="I10">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>181</v>
+      </c>
+      <c r="B11" t="s">
+        <v>182</v>
+      </c>
+      <c r="C11" t="s">
+        <v>183</v>
+      </c>
+      <c r="D11" t="s">
+        <v>190</v>
+      </c>
+      <c r="E11" t="s">
+        <v>179</v>
+      </c>
+      <c r="F11">
+        <v>21</v>
+      </c>
+      <c r="G11" t="s">
+        <v>173</v>
+      </c>
+      <c r="H11" t="s">
+        <v>163</v>
+      </c>
+      <c r="I11">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>184</v>
+      </c>
+      <c r="B12" t="s">
+        <v>182</v>
+      </c>
+      <c r="C12" t="s">
+        <v>183</v>
+      </c>
+      <c r="D12" t="s">
+        <v>190</v>
+      </c>
+      <c r="E12" t="s">
+        <v>179</v>
+      </c>
+      <c r="F12">
+        <v>12</v>
+      </c>
+      <c r="G12" t="s">
+        <v>167</v>
+      </c>
+      <c r="H12" t="s">
+        <v>163</v>
+      </c>
+      <c r="I12">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>185</v>
+      </c>
+      <c r="B13" t="s">
+        <v>182</v>
+      </c>
+      <c r="C13" t="s">
+        <v>183</v>
+      </c>
+      <c r="D13" t="s">
+        <v>190</v>
+      </c>
+      <c r="E13" t="s">
+        <v>179</v>
+      </c>
+      <c r="F13">
+        <v>12</v>
+      </c>
+      <c r="G13" t="s">
+        <v>167</v>
+      </c>
+      <c r="H13" t="s">
+        <v>163</v>
+      </c>
+      <c r="I13">
+        <v>100</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="D1:E1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/database.xlsx
+++ b/database.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\docx\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Python project\docx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF23704F-B723-4E02-80AA-4A872B833F6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7560755D-CEFD-4F83-8430-79A5D0C5F033}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38430" yWindow="30" windowWidth="38370" windowHeight="20850" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Сводный мат баланс" sheetId="1" r:id="rId1"/>
@@ -938,17 +938,15 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -2009,28 +2007,28 @@
         <v>28</v>
       </c>
       <c r="B1" s="14"/>
-      <c r="C1" s="13">
+      <c r="C1" s="12">
         <v>1</v>
       </c>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13">
-        <v>2</v>
-      </c>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13">
-        <v>3</v>
-      </c>
-      <c r="H1" s="13"/>
-      <c r="I1" s="13">
+      <c r="D1" s="12"/>
+      <c r="E1" s="12">
+        <v>2</v>
+      </c>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12">
+        <v>3</v>
+      </c>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12">
         <v>4</v>
       </c>
-      <c r="J1" s="13"/>
+      <c r="J1" s="12"/>
     </row>
     <row r="2" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="B2" s="12"/>
+      <c r="B2" s="13"/>
       <c r="C2" s="3">
         <v>1</v>
       </c>
@@ -2064,10 +2062,10 @@
       </c>
     </row>
     <row r="3" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="12" t="s">
+      <c r="A3" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="B3" s="12"/>
+      <c r="B3" s="13"/>
       <c r="C3" s="3">
         <v>1</v>
       </c>
@@ -2101,10 +2099,10 @@
       </c>
     </row>
     <row r="4" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="12" t="s">
+      <c r="A4" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="B4" s="12"/>
+      <c r="B4" s="13"/>
       <c r="C4" s="3">
         <v>1</v>
       </c>
@@ -2138,10 +2136,10 @@
       </c>
     </row>
     <row r="5" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="12" t="s">
+      <c r="A5" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="B5" s="12"/>
+      <c r="B5" s="13"/>
       <c r="C5" s="3">
         <v>1</v>
       </c>
@@ -2175,10 +2173,10 @@
       </c>
     </row>
     <row r="6" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="12" t="s">
+      <c r="A6" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="B6" s="12"/>
+      <c r="B6" s="13"/>
       <c r="C6" s="3">
         <v>1</v>
       </c>
@@ -2212,10 +2210,10 @@
       </c>
     </row>
     <row r="7" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="12" t="s">
+      <c r="A7" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="B7" s="12"/>
+      <c r="B7" s="13"/>
       <c r="C7" s="3">
         <v>1</v>
       </c>
@@ -2249,10 +2247,10 @@
       </c>
     </row>
     <row r="8" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="12" t="s">
+      <c r="A8" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="B8" s="12"/>
+      <c r="B8" s="13"/>
       <c r="C8" s="3">
         <v>1</v>
       </c>
@@ -2286,10 +2284,10 @@
       </c>
     </row>
     <row r="9" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="12" t="s">
+      <c r="A9" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="B9" s="12"/>
+      <c r="B9" s="13"/>
       <c r="C9" s="3">
         <v>1</v>
       </c>
@@ -2323,10 +2321,10 @@
       </c>
     </row>
     <row r="10" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="12" t="s">
+      <c r="A10" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="B10" s="12"/>
+      <c r="B10" s="13"/>
       <c r="C10" s="3">
         <v>1</v>
       </c>
@@ -2360,10 +2358,10 @@
       </c>
     </row>
     <row r="11" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="12" t="s">
+      <c r="A11" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="B11" s="12"/>
+      <c r="B11" s="13"/>
       <c r="C11" s="3">
         <v>1</v>
       </c>
@@ -2397,10 +2395,10 @@
       </c>
     </row>
     <row r="12" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="12" t="s">
+      <c r="A12" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="B12" s="12"/>
+      <c r="B12" s="13"/>
       <c r="C12" s="3">
         <v>1</v>
       </c>
@@ -2434,10 +2432,10 @@
       </c>
     </row>
     <row r="13" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="12" t="s">
+      <c r="A13" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="B13" s="12"/>
+      <c r="B13" s="13"/>
       <c r="C13" s="3">
         <v>1</v>
       </c>
@@ -2471,10 +2469,10 @@
       </c>
     </row>
     <row r="14" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="12" t="s">
+      <c r="A14" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="B14" s="12"/>
+      <c r="B14" s="13"/>
       <c r="C14" s="3">
         <v>1</v>
       </c>
@@ -2508,10 +2506,10 @@
       </c>
     </row>
     <row r="15" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="12" t="s">
+      <c r="A15" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="B15" s="12"/>
+      <c r="B15" s="13"/>
       <c r="C15" s="3">
         <v>1</v>
       </c>
@@ -2546,6 +2544,12 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A14:B14"/>
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="G1:H1"/>
     <mergeCell ref="I1:J1"/>
@@ -2559,12 +2563,6 @@
     <mergeCell ref="A8:B8"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A14:B14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3530,7 +3528,7 @@
   <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3900,9 +3898,6 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="D1:E1"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/database.xlsx
+++ b/database.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Python project\docx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7560755D-CEFD-4F83-8430-79A5D0C5F033}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{039E2F2E-7E2D-46B7-90A3-0D1DF5830F7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38430" yWindow="30" windowWidth="38370" windowHeight="20850" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38430" yWindow="30" windowWidth="38370" windowHeight="20850" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Сводный мат баланс" sheetId="1" r:id="rId1"/>
@@ -20,6 +20,9 @@
     <sheet name="8.1" sheetId="6" r:id="rId5"/>
     <sheet name="8.2" sheetId="7" r:id="rId6"/>
     <sheet name="11.1" sheetId="9" r:id="rId7"/>
+    <sheet name="11.2.1" sheetId="10" r:id="rId8"/>
+    <sheet name="11.2.2" sheetId="11" r:id="rId9"/>
+    <sheet name="11.3" sheetId="12" r:id="rId10"/>
   </sheets>
   <definedNames>
     <definedName name="Тарелки">#REF!</definedName>
@@ -43,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="220">
   <si>
     <t>H2S</t>
   </si>
@@ -784,6 +787,84 @@
   </si>
   <si>
     <t>Давление расчетное,  кгс/см2 (изб.)</t>
+  </si>
+  <si>
+    <t>Е-301</t>
+  </si>
+  <si>
+    <t>Подогреватель насыщенного раствора щелочи</t>
+  </si>
+  <si>
+    <t>16,0*</t>
+  </si>
+  <si>
+    <t>ЕW-301</t>
+  </si>
+  <si>
+    <t>Холодильник регенерированного раствора щелочи</t>
+  </si>
+  <si>
+    <t>Тна входе, 0С</t>
+  </si>
+  <si>
+    <t>Тна выходе, 0С</t>
+  </si>
+  <si>
+    <t>Давление изб., кгс/см2 (изб.)</t>
+  </si>
+  <si>
+    <t>Расход, м3/ч</t>
+  </si>
+  <si>
+    <t>Т расч., ℃</t>
+  </si>
+  <si>
+    <t>Рраб/расч, кгс/см2 (изб.)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Расход </t>
+  </si>
+  <si>
+    <t>2,4/6,0</t>
+  </si>
+  <si>
+    <t>140,1 кг/ч</t>
+  </si>
+  <si>
+    <t>3,0/6,0</t>
+  </si>
+  <si>
+    <t>6,2 м3/ч</t>
+  </si>
+  <si>
+    <t>Давление Расчетное,  кгс/см2 (изб.)</t>
+  </si>
+  <si>
+    <t>Дифференциальный напор, м</t>
+  </si>
+  <si>
+    <t>Траб, 0С</t>
+  </si>
+  <si>
+    <t>Р-301А/В</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Насос центробежный </t>
+  </si>
+  <si>
+    <t>Р-302А/В</t>
+  </si>
+  <si>
+    <t>Р-303**</t>
+  </si>
+  <si>
+    <t>Насос центробежный</t>
+  </si>
+  <si>
+    <t>Р-304А/В</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Насос плунжерный </t>
   </si>
 </sst>
 </file>
@@ -934,19 +1015,19 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -1247,22 +1328,22 @@
       <c r="B1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="11">
+      <c r="C1" s="12">
         <v>1</v>
       </c>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11">
+      <c r="D1" s="12"/>
+      <c r="E1" s="12">
         <v>2</v>
       </c>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11">
-        <v>3</v>
-      </c>
-      <c r="H1" s="11"/>
-      <c r="I1" s="11">
+      <c r="F1" s="12"/>
+      <c r="G1" s="12">
+        <v>3</v>
+      </c>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12">
         <v>4</v>
       </c>
-      <c r="J1" s="11"/>
+      <c r="J1" s="12"/>
     </row>
     <row r="2" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -1985,6 +2066,113 @@
     <mergeCell ref="G1:H1"/>
     <mergeCell ref="I1:J1"/>
   </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6925B81-7678-4094-B884-6209C0D66563}">
+  <dimension ref="A1:E5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F30" sqref="F30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B1" t="s">
+        <v>157</v>
+      </c>
+      <c r="C1" t="s">
+        <v>211</v>
+      </c>
+      <c r="D1" t="s">
+        <v>212</v>
+      </c>
+      <c r="E1" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>213</v>
+      </c>
+      <c r="B2" t="s">
+        <v>214</v>
+      </c>
+      <c r="C2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D2" t="s">
+        <v>168</v>
+      </c>
+      <c r="E2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>215</v>
+      </c>
+      <c r="B3" t="s">
+        <v>214</v>
+      </c>
+      <c r="C3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D3" t="s">
+        <v>163</v>
+      </c>
+      <c r="E3" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>216</v>
+      </c>
+      <c r="B4" t="s">
+        <v>217</v>
+      </c>
+      <c r="C4" t="s">
+        <v>63</v>
+      </c>
+      <c r="D4" t="s">
+        <v>180</v>
+      </c>
+      <c r="E4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>218</v>
+      </c>
+      <c r="B5" t="s">
+        <v>219</v>
+      </c>
+      <c r="C5" t="s">
+        <v>63</v>
+      </c>
+      <c r="D5">
+        <v>40</v>
+      </c>
+      <c r="E5" t="s">
+        <v>122</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2003,26 +2191,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="12">
+      <c r="B1" s="15"/>
+      <c r="C1" s="14">
         <v>1</v>
       </c>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12">
+      <c r="D1" s="14"/>
+      <c r="E1" s="14">
         <v>2</v>
       </c>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12">
-        <v>3</v>
-      </c>
-      <c r="H1" s="12"/>
-      <c r="I1" s="12">
+      <c r="F1" s="14"/>
+      <c r="G1" s="14">
+        <v>3</v>
+      </c>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14">
         <v>4</v>
       </c>
-      <c r="J1" s="12"/>
+      <c r="J1" s="14"/>
     </row>
     <row r="2" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
@@ -2544,12 +2732,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A14:B14"/>
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="G1:H1"/>
     <mergeCell ref="I1:J1"/>
@@ -2563,6 +2745,12 @@
     <mergeCell ref="A8:B8"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A14:B14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3527,8 +3715,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BB8F5F1-7F1C-4A8F-9123-E1FB0989A669}">
   <dimension ref="A1:I13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F43" sqref="F43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3553,10 +3741,10 @@
       <c r="C1" t="s">
         <v>186</v>
       </c>
-      <c r="D1" s="15" t="s">
+      <c r="D1" s="11" t="s">
         <v>158</v>
       </c>
-      <c r="E1" s="15"/>
+      <c r="E1" s="11"/>
       <c r="F1" t="s">
         <v>192</v>
       </c>
@@ -3895,6 +4083,193 @@
       </c>
       <c r="I13">
         <v>100</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F8BA8B3-0075-48AE-A1B5-D27F88BD37D8}">
+  <dimension ref="A1:G3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="49.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="28.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="34.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B1" t="s">
+        <v>157</v>
+      </c>
+      <c r="C1" t="s">
+        <v>199</v>
+      </c>
+      <c r="D1" t="s">
+        <v>200</v>
+      </c>
+      <c r="E1" t="s">
+        <v>201</v>
+      </c>
+      <c r="F1" t="s">
+        <v>210</v>
+      </c>
+      <c r="G1" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>194</v>
+      </c>
+      <c r="B2" t="s">
+        <v>195</v>
+      </c>
+      <c r="C2">
+        <v>40</v>
+      </c>
+      <c r="D2">
+        <v>60</v>
+      </c>
+      <c r="E2">
+        <v>6</v>
+      </c>
+      <c r="F2" t="s">
+        <v>196</v>
+      </c>
+      <c r="G2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>197</v>
+      </c>
+      <c r="B3" t="s">
+        <v>198</v>
+      </c>
+      <c r="C3">
+        <v>60</v>
+      </c>
+      <c r="D3">
+        <v>40</v>
+      </c>
+      <c r="E3">
+        <v>12</v>
+      </c>
+      <c r="F3" t="s">
+        <v>196</v>
+      </c>
+      <c r="G3" t="s">
+        <v>95</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB588080-EEAA-4A3B-8B60-26F10FB79680}">
+  <dimension ref="A1:G3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E37" sqref="E37"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="49.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.85546875" customWidth="1"/>
+    <col min="6" max="6" width="24" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B1" t="s">
+        <v>157</v>
+      </c>
+      <c r="C1" t="s">
+        <v>199</v>
+      </c>
+      <c r="D1" t="s">
+        <v>200</v>
+      </c>
+      <c r="E1" t="s">
+        <v>203</v>
+      </c>
+      <c r="F1" t="s">
+        <v>204</v>
+      </c>
+      <c r="G1" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>194</v>
+      </c>
+      <c r="B2" t="s">
+        <v>195</v>
+      </c>
+      <c r="C2">
+        <v>143</v>
+      </c>
+      <c r="D2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E2">
+        <v>200</v>
+      </c>
+      <c r="F2" t="s">
+        <v>206</v>
+      </c>
+      <c r="G2" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>197</v>
+      </c>
+      <c r="B3" t="s">
+        <v>198</v>
+      </c>
+      <c r="C3">
+        <v>25</v>
+      </c>
+      <c r="D3">
+        <v>42</v>
+      </c>
+      <c r="E3">
+        <v>50</v>
+      </c>
+      <c r="F3" t="s">
+        <v>208</v>
+      </c>
+      <c r="G3" t="s">
+        <v>209</v>
       </c>
     </row>
   </sheetData>
